--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/VICTOR DIAZ.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/VICTOR DIAZ.xlsx
@@ -74,24 +74,33 @@
     <x:t>Comentarios</x:t>
   </x:si>
   <x:si>
+    <x:t>JUAREZ VAZQUEZ DANIEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NRJVD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACTIVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contraloria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X482929</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VICTOR DIAZ</x:t>
+  </x:si>
+  <x:si>
     <x:t>DELGADO GONZALEZ CHRITIAN</x:t>
   </x:si>
   <x:si>
     <x:t>NRDGCF</x:t>
   </x:si>
   <x:si>
-    <x:t>ACTIVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contraloria</x:t>
-  </x:si>
-  <x:si>
     <x:t>X267712</x:t>
   </x:si>
   <x:si>
-    <x:t>VICTOR DIAZ</x:t>
-  </x:si>
-  <x:si>
     <x:t>EKIP</x:t>
   </x:si>
   <x:si>
@@ -107,7 +116,7 @@
     <x:t>DUARTEM</x:t>
   </x:si>
   <x:si>
-    <x:t>CONT</x:t>
+    <x:t>Contabilidad</x:t>
   </x:si>
   <x:si>
     <x:t>Paulina  Landgrave</x:t>
@@ -167,7 +176,7 @@
     <x:t>X311782</x:t>
   </x:si>
   <x:si>
-    <x:t>JONATHAN JUSEF VILLAFA?A HIDALGO</x:t>
+    <x:t>JONATHAN JUSEF VILLAFAÑA HIDALGO</x:t>
   </x:si>
   <x:si>
     <x:t>X313505</x:t>
@@ -209,15 +218,12 @@
     <x:t>X467519</x:t>
   </x:si>
   <x:si>
-    <x:t>GENE</x:t>
+    <x:t>Generico</x:t>
   </x:si>
   <x:si>
     <x:t>Daniel Juarez Vazquez</x:t>
   </x:si>
   <x:si>
-    <x:t>X482929</x:t>
-  </x:si>
-  <x:si>
     <x:t>Melissa Betzabe Collazo Guzman</x:t>
   </x:si>
   <x:si>
@@ -260,7 +266,7 @@
     <x:t>X728801</x:t>
   </x:si>
   <x:si>
-    <x:t>SONIA ALEJANDRA DE LA PE?A SAAVEDRA</x:t>
+    <x:t>SONIA ALEJANDRA DE LA PEÑA SAAVEDRA</x:t>
   </x:si>
   <x:si>
     <x:t>X771648</x:t>
@@ -287,9 +293,6 @@
     <x:t>EKIPINTER</x:t>
   </x:si>
   <x:si>
-    <x:t>Contabilidad</x:t>
-  </x:si>
-  <x:si>
     <x:t>PAULINA LANDRGAVE ELIZABETH</x:t>
   </x:si>
   <x:si>
@@ -302,15 +305,6 @@
     <x:t>Cartera</x:t>
   </x:si>
   <x:si>
-    <x:t>Karla Anguiano Hernandez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X305598</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PlaneacionFinanciera</x:t>
-  </x:si>
-  <x:si>
     <x:t>VICTOR ADAN DIAZ VAZQUEZ</x:t>
   </x:si>
   <x:si>
@@ -326,9 +320,6 @@
     <x:t>Luis Angel Hernandez Rivera</x:t>
   </x:si>
   <x:si>
-    <x:t>SONIA ALEJANDRA DE LA PEÑA SAAVEDRA</x:t>
-  </x:si>
-  <x:si>
     <x:t>TEKFLEET</x:t>
   </x:si>
   <x:si>
@@ -360,9 +351,6 @@
   </x:si>
   <x:si>
     <x:t>Ultimo Acceso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
   </x:si>
   <x:si>
     <x:t>CONTRALORIA</x:t>
@@ -807,7 +795,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K6"/>
+  <x:dimension ref="A1:K7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -898,10 +886,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="4">
-        <x:v>43536</x:v>
-      </x:c>
-      <x:c r="G6" s="4">
-        <x:v>45351</x:v>
+        <x:v>43146</x:v>
+      </x:c>
+      <x:c r="G6" s="5">
+        <x:v>45288.4730324074</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>19</x:v>
@@ -911,6 +899,37 @@
       </x:c>
       <x:c r="J6" s="3"/>
       <x:c r="K6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F7" s="4">
+        <x:v>43536</x:v>
+      </x:c>
+      <x:c r="G7" s="5">
+        <x:v>45309.7472106482</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J7" s="3"/>
+      <x:c r="K7" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:L5"/>
@@ -950,7 +969,7 @@
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="D2" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -971,10 +990,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
         <x:v>9</x:v>
@@ -991,19 +1010,19 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E6" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
         <x:v>20</x:v>
@@ -1013,19 +1032,19 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E7" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
         <x:v>20</x:v>
@@ -1035,19 +1054,19 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E8" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
         <x:v>20</x:v>
@@ -1057,19 +1076,19 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E9" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
         <x:v>20</x:v>
@@ -1079,19 +1098,19 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="4">
-        <x:v>44013</x:v>
+        <x:v>43837</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
         <x:v>20</x:v>
@@ -1101,19 +1120,19 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E11" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
         <x:v>20</x:v>
@@ -1123,16 +1142,16 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E12" s="4">
         <x:v>45273</x:v>
@@ -1145,19 +1164,19 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E13" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
         <x:v>20</x:v>
@@ -1167,16 +1186,16 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E14" s="4">
         <x:v>44067</x:v>
@@ -1189,19 +1208,19 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E15" s="4">
-        <x:v>44868</x:v>
+        <x:v>44631</x:v>
       </x:c>
       <x:c r="F15" s="3" t="s">
         <x:v>20</x:v>
@@ -1211,19 +1230,19 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E16" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
         <x:v>20</x:v>
@@ -1233,19 +1252,19 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E17" s="4">
-        <x:v>44110</x:v>
+        <x:v>43992</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
         <x:v>20</x:v>
@@ -1255,19 +1274,19 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E18" s="4">
-        <x:v>44204</x:v>
+        <x:v>44409</x:v>
       </x:c>
       <x:c r="F18" s="3" t="s">
         <x:v>20</x:v>
@@ -1277,16 +1296,16 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E19" s="4">
         <x:v>44216</x:v>
@@ -1299,16 +1318,16 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E20" s="4">
         <x:v>43909</x:v>
@@ -1321,19 +1340,19 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D21" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E21" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F21" s="3" t="s">
         <x:v>20</x:v>
@@ -1343,19 +1362,19 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E22" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F22" s="3" t="s">
         <x:v>20</x:v>
@@ -1365,19 +1384,19 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D23" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E23" s="4">
-        <x:v>44022</x:v>
+        <x:v>44111</x:v>
       </x:c>
       <x:c r="F23" s="3" t="s">
         <x:v>20</x:v>
@@ -1387,19 +1406,19 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D24" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E24" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F24" s="3" t="s">
         <x:v>20</x:v>
@@ -1409,19 +1428,19 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D25" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E25" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F25" s="3" t="s">
         <x:v>20</x:v>
@@ -1431,19 +1450,19 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E26" s="4">
-        <x:v>44806</x:v>
+        <x:v>44601</x:v>
       </x:c>
       <x:c r="F26" s="3" t="s">
         <x:v>20</x:v>
@@ -1453,16 +1472,16 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D27" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E27" s="4">
         <x:v>43909</x:v>
@@ -1475,19 +1494,19 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E28" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F28" s="3" t="s">
         <x:v>20</x:v>
@@ -1497,16 +1516,16 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D29" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E29" s="4">
         <x:v>44517</x:v>
@@ -1519,16 +1538,16 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D30" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E30" s="4">
         <x:v>43769</x:v>
@@ -1541,16 +1560,16 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D31" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E31" s="4">
         <x:v>45041</x:v>
@@ -1563,16 +1582,16 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D32" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E32" s="4">
         <x:v>43980</x:v>
@@ -1585,16 +1604,16 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D33" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E33" s="4">
         <x:v>43979</x:v>
@@ -1607,16 +1626,16 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D34" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E34" s="4">
         <x:v>44217</x:v>
@@ -1629,16 +1648,16 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D35" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E35" s="4">
         <x:v>44942</x:v>
@@ -1664,7 +1683,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G29"/>
+  <x:dimension ref="A1:G28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1686,7 +1705,7 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="D2" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -1724,16 +1743,16 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
         <x:v>20</x:v>
@@ -1743,16 +1762,16 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
         <x:v>20</x:v>
@@ -1762,16 +1781,16 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
         <x:v>20</x:v>
@@ -1781,16 +1800,16 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
         <x:v>20</x:v>
@@ -1800,16 +1819,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
         <x:v>20</x:v>
@@ -1819,16 +1838,16 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
         <x:v>20</x:v>
@@ -1838,16 +1857,16 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
         <x:v>20</x:v>
@@ -1857,16 +1876,16 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
         <x:v>20</x:v>
@@ -1876,16 +1895,16 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
         <x:v>20</x:v>
@@ -1895,16 +1914,16 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
         <x:v>20</x:v>
@@ -1914,16 +1933,16 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
         <x:v>20</x:v>
@@ -1933,16 +1952,16 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
         <x:v>20</x:v>
@@ -1952,16 +1971,16 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
         <x:v>20</x:v>
@@ -1971,16 +1990,16 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
         <x:v>20</x:v>
@@ -1990,16 +2009,16 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
         <x:v>20</x:v>
@@ -2009,16 +2028,16 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D21" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E21" s="3" t="s">
         <x:v>20</x:v>
@@ -2028,16 +2047,16 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E22" s="3" t="s">
         <x:v>20</x:v>
@@ -2047,16 +2066,16 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D23" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E23" s="3" t="s">
         <x:v>20</x:v>
@@ -2066,16 +2085,16 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D24" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E24" s="3" t="s">
         <x:v>20</x:v>
@@ -2085,16 +2104,16 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D25" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E25" s="3" t="s">
         <x:v>20</x:v>
@@ -2104,16 +2123,16 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E26" s="3" t="s">
         <x:v>20</x:v>
@@ -2123,16 +2142,16 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D27" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E27" s="3" t="s">
         <x:v>20</x:v>
@@ -2142,41 +2161,22 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E28" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F28" s="3"/>
       <x:c r="G28" s="3"/>
-    </x:row>
-    <x:row r="29" spans="1:7">
-      <x:c r="A29" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B29" s="3" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C29" s="3" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D29" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E29" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F29" s="3"/>
-      <x:c r="G29" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:H5"/>
@@ -2217,7 +2217,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -2261,19 +2261,19 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>103</x:v>
-      </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>44307</x:v>
@@ -2286,16 +2286,16 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
         <x:v>18</x:v>
@@ -2311,16 +2311,16 @@
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
         <x:v>18</x:v>
@@ -2374,7 +2374,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -2404,10 +2404,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -2421,25 +2421,25 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>112</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>45099</x:v>
       </x:c>
       <x:c r="G6" s="4">
-        <x:v>45345</x:v>
+        <x:v>45313</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
@@ -2462,14 +2462,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J7"/>
+  <x:dimension ref="A1:J6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="10.139196" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="31.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="31.424911" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.424911" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
     <x:col min="5" max="6" width="14.424911" style="0" customWidth="1"/>
@@ -2486,7 +2486,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -2516,10 +2516,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -2533,57 +2533,31 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>117</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G6" s="5">
-        <x:v>45348.3998611111</x:v>
+        <x:v>45316.7646153588</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I6" s="3"/>
       <x:c r="J6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="3" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F7" s="3" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="G7" s="3" t="s"/>
-      <x:c r="H7" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I7" s="3"/>
-      <x:c r="J7" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:K5"/>
